--- a/data/trans_orig/IP07A10-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A10-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3B6DEF1-E0E1-43B5-88B4-026EC755C12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BDEA343-CD92-4AF1-A97E-B16DA07322E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4764C882-DD1D-418E-B6E3-7F06C7F12935}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DAF6B60F-B563-4A55-8456-F93B896F4733}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="818">
   <si>
     <t>Menores según frecuencia de haber podido disfrutar de su tiempo libre en 2007 (Tasa respuesta: 47,2%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -77,10 +77,10 @@
     <t>29,17%</t>
   </si>
   <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
   </si>
   <si>
     <t>9,45%</t>
@@ -89,16 +89,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>29,42%</t>
+    <t>34,68%</t>
   </si>
   <si>
     <t>18,89%</t>
   </si>
   <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -107,28 +107,28 @@
     <t>61,16%</t>
   </si>
   <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
   </si>
   <si>
     <t>63,44%</t>
   </si>
   <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
   </si>
   <si>
     <t>62,35%</t>
   </si>
   <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -137,25 +137,25 @@
     <t>9,67%</t>
   </si>
   <si>
-    <t>32,85%</t>
+    <t>30,35%</t>
   </si>
   <si>
     <t>27,11%</t>
   </si>
   <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
   </si>
   <si>
     <t>18,76%</t>
   </si>
   <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
   </si>
   <si>
     <t>Casi nunca</t>
@@ -179,2338 +179,2320 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>28,89%</t>
   </si>
   <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
   </si>
   <si>
     <t>23,86%</t>
   </si>
   <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
   </si>
   <si>
     <t>26,77%</t>
   </si>
   <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
   </si>
   <si>
     <t>53,18%</t>
   </si>
   <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
   </si>
   <si>
     <t>52,01%</t>
   </si>
   <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido disfrutar de su tiempo libre en 2012 (Tasa respuesta: 44,78%)</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido disfrutar de su tiempo libre en 2016 (Tasa respuesta: 47,27%)</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido disfrutar de su tiempo libre en 2023 (Tasa respuesta: 50,21%)</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
     <t>40,01%</t>
   </si>
   <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
   </si>
   <si>
     <t>37,5%</t>
   </si>
   <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido disfrutar de su tiempo libre en 2012 (Tasa respuesta: 44,78%)</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido disfrutar de su tiempo libre en 2015 (Tasa respuesta: 47,27%)</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido disfrutar de su tiempo libre en 2023 (Tasa respuesta: 50,21%)</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
   </si>
   <si>
     <t>7,2%</t>
   </si>
   <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
   </si>
   <si>
     <t>3,62%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
   </si>
   <si>
     <t>0,87%</t>
   </si>
   <si>
+    <t>0,31%</t>
+  </si>
+  <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
+    <t>0,43%</t>
   </si>
   <si>
     <t>0,67%</t>
   </si>
   <si>
-    <t>0,16%</t>
+    <t>1,81%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
+    <t>1,75%</t>
   </si>
 </sst>
 </file>
@@ -2922,7 +2904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF2BD0B-7850-4C80-B054-C0DFBA558E89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66D83F0-59F3-4884-BC91-842D399B54C2}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3426,7 +3408,7 @@
         <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>91</v>
@@ -3435,13 +3417,13 @@
         <v>61103</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,13 +3438,13 @@
         <v>12015</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H12" s="7">
         <v>17</v>
@@ -3471,13 +3453,13 @@
         <v>11815</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M12" s="7">
         <v>35</v>
@@ -3486,13 +3468,13 @@
         <v>23830</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,7 +3495,7 @@
         <v>40</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3528,7 +3510,7 @@
         <v>40</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3543,7 +3525,7 @@
         <v>40</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3564,7 +3546,7 @@
         <v>40</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3579,7 +3561,7 @@
         <v>40</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3594,7 +3576,7 @@
         <v>40</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,7 +3632,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3662,13 +3644,13 @@
         <v>28619</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
         <v>47</v>
@@ -3677,13 +3659,13 @@
         <v>30069</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M16" s="7">
         <v>90</v>
@@ -3692,13 +3674,13 @@
         <v>58688</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3713,13 +3695,13 @@
         <v>47870</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H17" s="7">
         <v>83</v>
@@ -3728,13 +3710,13 @@
         <v>52474</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M17" s="7">
         <v>156</v>
@@ -3743,13 +3725,13 @@
         <v>100344</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,13 +3746,13 @@
         <v>20127</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H18" s="7">
         <v>32</v>
@@ -3779,13 +3761,13 @@
         <v>20147</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M18" s="7">
         <v>63</v>
@@ -3794,13 +3776,13 @@
         <v>40274</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,13 +3797,13 @@
         <v>1940</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -3830,13 +3812,13 @@
         <v>642</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -3845,13 +3827,13 @@
         <v>2582</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3866,13 +3848,13 @@
         <v>679</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4586,13 +4568,13 @@
         <v>108499</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H34" s="7">
         <v>139</v>
@@ -4601,13 +4583,13 @@
         <v>92807</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M34" s="7">
         <v>302</v>
@@ -4616,13 +4598,13 @@
         <v>201306</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,13 +4619,13 @@
         <v>167054</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H35" s="7">
         <v>228</v>
@@ -4652,13 +4634,13 @@
         <v>154018</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M35" s="7">
         <v>478</v>
@@ -4667,10 +4649,10 @@
         <v>321072</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>215</v>
@@ -4703,13 +4685,13 @@
         <v>67387</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>78</v>
+        <v>219</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M36" s="7">
         <v>198</v>
@@ -4718,13 +4700,13 @@
         <v>132863</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4739,13 +4721,13 @@
         <v>2423</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H37" s="7">
         <v>6</v>
@@ -4754,13 +4736,13 @@
         <v>4007</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M37" s="7">
         <v>10</v>
@@ -4769,13 +4751,13 @@
         <v>6431</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,10 +4790,10 @@
         <v>193</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M38" s="7">
         <v>5</v>
@@ -4820,13 +4802,13 @@
         <v>3407</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4868,7 +4850,7 @@
         <v>993</v>
       </c>
       <c r="N39" s="7">
-        <v>665078</v>
+        <v>665079</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>45</v>
@@ -4882,7 +4864,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -4903,7 +4885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DD2B95-C9AC-4278-9159-C14E381969AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E582717-2886-4441-A9AF-3ACA6DBB8469}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4920,7 +4902,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5027,13 +5009,13 @@
         <v>6388</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -5042,13 +5024,13 @@
         <v>6650</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -5057,13 +5039,13 @@
         <v>13038</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5078,13 +5060,13 @@
         <v>8102</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -5093,13 +5075,13 @@
         <v>4624</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -5108,13 +5090,13 @@
         <v>12726</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5135,7 +5117,7 @@
         <v>40</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -5144,13 +5126,13 @@
         <v>669</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>103</v>
+        <v>260</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -5159,13 +5141,13 @@
         <v>669</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>259</v>
+        <v>117</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5186,7 +5168,7 @@
         <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5201,7 +5183,7 @@
         <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -5216,7 +5198,7 @@
         <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5237,7 +5219,7 @@
         <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5252,7 +5234,7 @@
         <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5267,7 +5249,7 @@
         <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5335,13 +5317,13 @@
         <v>26191</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
@@ -5350,13 +5332,13 @@
         <v>22728</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M10" s="7">
         <v>70</v>
@@ -5365,13 +5347,13 @@
         <v>48918</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,13 +5368,13 @@
         <v>22297</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H11" s="7">
         <v>34</v>
@@ -5401,13 +5383,13 @@
         <v>24546</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M11" s="7">
         <v>66</v>
@@ -5416,13 +5398,13 @@
         <v>46843</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>38</v>
+        <v>280</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5437,13 +5419,13 @@
         <v>7686</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -5452,13 +5434,13 @@
         <v>6409</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M12" s="7">
         <v>21</v>
@@ -5467,13 +5449,13 @@
         <v>14096</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5488,13 +5470,13 @@
         <v>1313</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5509,7 +5491,7 @@
         <v>40</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -5518,13 +5500,13 @@
         <v>1313</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5539,13 +5521,13 @@
         <v>687</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5560,7 +5542,7 @@
         <v>40</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -5569,13 +5551,13 @@
         <v>687</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5631,7 +5613,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5643,13 +5625,13 @@
         <v>34108</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H16" s="7">
         <v>68</v>
@@ -5658,13 +5640,13 @@
         <v>44620</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M16" s="7">
         <v>119</v>
@@ -5673,13 +5655,13 @@
         <v>78728</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,13 +5676,13 @@
         <v>49517</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H17" s="7">
         <v>60</v>
@@ -5709,13 +5691,13 @@
         <v>40085</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>312</v>
+        <v>246</v>
       </c>
       <c r="M17" s="7">
         <v>133</v>
@@ -5724,13 +5706,13 @@
         <v>89602</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5745,13 +5727,13 @@
         <v>12325</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H18" s="7">
         <v>20</v>
@@ -5760,13 +5742,13 @@
         <v>13227</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M18" s="7">
         <v>39</v>
@@ -5775,13 +5757,13 @@
         <v>25553</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5802,7 +5784,7 @@
         <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5817,7 +5799,7 @@
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -5826,7 +5808,7 @@
         <v>627</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>327</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>15</v>
@@ -5883,7 +5865,7 @@
         <v>15</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>328</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6059,7 +6041,7 @@
         <v>352</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>353</v>
+        <v>33</v>
       </c>
       <c r="H24" s="7">
         <v>18</v>
@@ -6068,13 +6050,13 @@
         <v>11989</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="M24" s="7">
         <v>38</v>
@@ -6083,13 +6065,13 @@
         <v>24502</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="P24" s="7" t="s">
-        <v>358</v>
-      </c>
       <c r="Q24" s="7" t="s">
-        <v>50</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6110,7 +6092,7 @@
         <v>40</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>232</v>
+        <v>358</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -6134,13 +6116,13 @@
         <v>612</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6155,13 +6137,13 @@
         <v>1794</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>198</v>
+        <v>362</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6176,7 +6158,7 @@
         <v>40</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -6185,13 +6167,13 @@
         <v>1794</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>228</v>
+        <v>365</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6259,13 +6241,13 @@
         <v>34049</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H28" s="7">
         <v>43</v>
@@ -6274,13 +6256,13 @@
         <v>32321</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M28" s="7">
         <v>89</v>
@@ -6289,13 +6271,13 @@
         <v>66370</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6310,13 +6292,13 @@
         <v>39626</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H29" s="7">
         <v>58</v>
@@ -6325,13 +6307,13 @@
         <v>46308</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M29" s="7">
         <v>113</v>
@@ -6340,13 +6322,13 @@
         <v>85934</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6361,13 +6343,13 @@
         <v>14841</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
@@ -6376,13 +6358,13 @@
         <v>10432</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M30" s="7">
         <v>34</v>
@@ -6391,13 +6373,13 @@
         <v>25273</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6412,13 +6394,13 @@
         <v>4614</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -6427,13 +6409,13 @@
         <v>1520</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M31" s="7">
         <v>8</v>
@@ -6442,13 +6424,13 @@
         <v>6133</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6469,7 +6451,7 @@
         <v>40</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -6478,13 +6460,13 @@
         <v>746</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -6493,13 +6475,13 @@
         <v>746</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>404</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6567,13 +6549,13 @@
         <v>134202</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>407</v>
+        <v>264</v>
       </c>
       <c r="H34" s="7">
         <v>186</v>
@@ -6672,10 +6654,10 @@
         <v>423</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="H36" s="7">
         <v>61</v>
@@ -6684,13 +6666,13 @@
         <v>42726</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="M36" s="7">
         <v>133</v>
@@ -6699,13 +6681,13 @@
         <v>90093</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6720,13 +6702,13 @@
         <v>5926</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>234</v>
+        <v>431</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>401</v>
+        <v>432</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H37" s="7">
         <v>4</v>
@@ -6738,10 +6720,10 @@
         <v>195</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>225</v>
+        <v>434</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="M37" s="7">
         <v>12</v>
@@ -6756,7 +6738,7 @@
         <v>146</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6774,10 +6756,10 @@
         <v>359</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>191</v>
+        <v>437</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -6786,13 +6768,13 @@
         <v>746</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>292</v>
+        <v>440</v>
       </c>
       <c r="M38" s="7">
         <v>6</v>
@@ -6801,13 +6783,13 @@
         <v>3799</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>438</v>
+        <v>234</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6863,7 +6845,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -6884,7 +6866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A82E4D-8CEB-4669-A994-A3FA126B3E8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBCCAC08-2BB5-4CC8-AD5D-979D59331BC3}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6901,7 +6883,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7008,13 +6990,13 @@
         <v>6301</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -7023,13 +7005,13 @@
         <v>9017</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -7038,13 +7020,13 @@
         <v>15318</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7059,13 +7041,13 @@
         <v>6158</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -7074,13 +7056,13 @@
         <v>3081</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -7089,13 +7071,13 @@
         <v>9240</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7110,13 +7092,13 @@
         <v>809</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -7125,13 +7107,13 @@
         <v>1827</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -7140,13 +7122,13 @@
         <v>2636</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>464</v>
+        <v>198</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7161,13 +7143,13 @@
         <v>1046</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -7182,7 +7164,7 @@
         <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -7191,13 +7173,13 @@
         <v>1046</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7218,7 +7200,7 @@
         <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -7233,7 +7215,7 @@
         <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -7248,7 +7230,7 @@
         <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7316,13 +7298,13 @@
         <v>23660</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="H10" s="7">
         <v>35</v>
@@ -7331,13 +7313,13 @@
         <v>24021</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="M10" s="7">
         <v>66</v>
@@ -7346,13 +7328,13 @@
         <v>47682</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7367,13 +7349,13 @@
         <v>24959</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H11" s="7">
         <v>33</v>
@@ -7382,13 +7364,13 @@
         <v>23338</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="M11" s="7">
         <v>66</v>
@@ -7397,13 +7379,13 @@
         <v>48297</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7418,13 +7400,13 @@
         <v>10694</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -7433,13 +7415,13 @@
         <v>7503</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="M12" s="7">
         <v>23</v>
@@ -7448,13 +7430,13 @@
         <v>18197</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7475,7 +7457,7 @@
         <v>40</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -7484,13 +7466,13 @@
         <v>644</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -7499,13 +7481,13 @@
         <v>644</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7526,7 +7508,7 @@
         <v>40</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -7535,13 +7517,13 @@
         <v>1408</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -7550,13 +7532,13 @@
         <v>1408</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>439</v>
+        <v>509</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7612,7 +7594,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7624,13 +7606,13 @@
         <v>41649</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>422</v>
+        <v>513</v>
       </c>
       <c r="H16" s="7">
         <v>62</v>
@@ -7639,13 +7621,13 @@
         <v>40265</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>512</v>
+        <v>417</v>
       </c>
       <c r="M16" s="7">
         <v>122</v>
@@ -7654,13 +7636,13 @@
         <v>81914</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7675,13 +7657,13 @@
         <v>49425</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="H17" s="7">
         <v>77</v>
@@ -7690,13 +7672,13 @@
         <v>51251</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="M17" s="7">
         <v>148</v>
@@ -7705,13 +7687,13 @@
         <v>100676</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7726,13 +7708,13 @@
         <v>12897</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="H18" s="7">
         <v>19</v>
@@ -7741,13 +7723,13 @@
         <v>12291</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>530</v>
+        <v>223</v>
       </c>
       <c r="M18" s="7">
         <v>38</v>
@@ -7756,13 +7738,13 @@
         <v>25189</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7777,13 +7759,13 @@
         <v>2987</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>146</v>
+        <v>537</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -7792,13 +7774,13 @@
         <v>2205</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -7807,13 +7789,13 @@
         <v>5192</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7834,7 +7816,7 @@
         <v>15</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -7843,13 +7825,13 @@
         <v>617</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -7858,13 +7840,13 @@
         <v>1307</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7932,13 +7914,13 @@
         <v>37320</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="H22" s="7">
         <v>54</v>
@@ -7947,13 +7929,13 @@
         <v>34984</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="M22" s="7">
         <v>106</v>
@@ -7962,13 +7944,13 @@
         <v>72304</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7983,13 +7965,13 @@
         <v>33270</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>90</v>
+        <v>557</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>553</v>
+        <v>265</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="H23" s="7">
         <v>43</v>
@@ -7998,13 +7980,13 @@
         <v>27787</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="M23" s="7">
         <v>90</v>
@@ -8013,13 +7995,13 @@
         <v>61057</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8034,13 +8016,13 @@
         <v>4291</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>561</v>
+        <v>155</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="H24" s="7">
         <v>13</v>
@@ -8049,13 +8031,13 @@
         <v>8415</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -8064,13 +8046,13 @@
         <v>12705</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>260</v>
+        <v>572</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8085,13 +8067,13 @@
         <v>2409</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -8106,7 +8088,7 @@
         <v>40</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -8115,13 +8097,13 @@
         <v>2409</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>235</v>
+        <v>156</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>392</v>
+        <v>578</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8142,7 +8124,7 @@
         <v>40</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -8157,7 +8139,7 @@
         <v>15</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -8166,13 +8148,13 @@
         <v>524</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>576</v>
+        <v>437</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8240,13 +8222,13 @@
         <v>36602</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>239</v>
+        <v>584</v>
       </c>
       <c r="H28" s="7">
         <v>47</v>
@@ -8258,10 +8240,10 @@
         <v>159</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>337</v>
+        <v>585</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="M28" s="7">
         <v>95</v>
@@ -8270,13 +8252,13 @@
         <v>72249</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8291,13 +8273,13 @@
         <v>48227</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="H29" s="7">
         <v>63</v>
@@ -8306,13 +8288,13 @@
         <v>49413</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="M29" s="7">
         <v>129</v>
@@ -8321,13 +8303,13 @@
         <v>97639</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8342,13 +8324,13 @@
         <v>15913</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="H30" s="7">
         <v>24</v>
@@ -8357,13 +8339,13 @@
         <v>17135</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="M30" s="7">
         <v>46</v>
@@ -8372,13 +8354,13 @@
         <v>33048</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>68</v>
+        <v>604</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8393,13 +8375,13 @@
         <v>1400</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -8408,13 +8390,13 @@
         <v>3910</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="M31" s="7">
         <v>7</v>
@@ -8423,13 +8405,13 @@
         <v>5309</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>259</v>
+        <v>117</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>540</v>
+        <v>612</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>360</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8450,7 +8432,7 @@
         <v>40</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -8459,13 +8441,13 @@
         <v>1488</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -8474,13 +8456,13 @@
         <v>1488</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8548,13 +8530,13 @@
         <v>145533</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="H34" s="7">
         <v>208</v>
@@ -8563,13 +8545,13 @@
         <v>143935</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>22</v>
+        <v>621</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>613</v>
+        <v>208</v>
       </c>
       <c r="M34" s="7">
         <v>406</v>
@@ -8578,13 +8560,13 @@
         <v>289468</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8599,13 +8581,13 @@
         <v>162040</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>617</v>
+        <v>312</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>279</v>
+        <v>625</v>
       </c>
       <c r="H35" s="7">
         <v>219</v>
@@ -8614,13 +8596,13 @@
         <v>154869</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>619</v>
+        <v>552</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="M35" s="7">
         <v>444</v>
@@ -8629,13 +8611,13 @@
         <v>316909</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8650,13 +8632,13 @@
         <v>44603</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="H36" s="7">
         <v>68</v>
@@ -8665,13 +8647,13 @@
         <v>47171</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="M36" s="7">
         <v>129</v>
@@ -8680,13 +8662,13 @@
         <v>91775</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>632</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8701,13 +8683,13 @@
         <v>7842</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>294</v>
+        <v>640</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="H37" s="7">
         <v>9</v>
@@ -8716,13 +8698,13 @@
         <v>6759</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>635</v>
+        <v>547</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>637</v>
+        <v>609</v>
       </c>
       <c r="M37" s="7">
         <v>19</v>
@@ -8731,13 +8713,13 @@
         <v>14601</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>404</v>
+        <v>643</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>325</v>
+        <v>644</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8752,13 +8734,13 @@
         <v>690</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="H38" s="7">
         <v>6</v>
@@ -8767,13 +8749,13 @@
         <v>4037</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="M38" s="7">
         <v>7</v>
@@ -8785,10 +8767,10 @@
         <v>116</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>332</v>
+        <v>648</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>150</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8844,7 +8826,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -8865,7 +8847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC4E2DA-601B-4342-A024-6223DC3D6BBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F27DE17-9C8C-4E6D-A2F1-30E332D4EEE4}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8882,7 +8864,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8989,13 +8971,13 @@
         <v>5009</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>643</v>
+        <v>16</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -9004,13 +8986,13 @@
         <v>7122</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -9019,13 +9001,13 @@
         <v>12130</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9040,13 +9022,13 @@
         <v>1546</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -9055,13 +9037,13 @@
         <v>2646</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -9070,13 +9052,13 @@
         <v>4192</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9097,7 +9079,7 @@
         <v>40</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -9112,7 +9094,7 @@
         <v>40</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -9127,7 +9109,7 @@
         <v>40</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>660</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9148,7 +9130,7 @@
         <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -9163,7 +9145,7 @@
         <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -9178,7 +9160,7 @@
         <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>660</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9199,7 +9181,7 @@
         <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -9214,7 +9196,7 @@
         <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -9229,7 +9211,7 @@
         <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>660</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9297,13 +9279,13 @@
         <v>47503</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="H10" s="7">
         <v>57</v>
@@ -9312,13 +9294,13 @@
         <v>40912</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="M10" s="7">
         <v>109</v>
@@ -9327,13 +9309,13 @@
         <v>88416</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9348,13 +9330,13 @@
         <v>15692</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>670</v>
+        <v>467</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>671</v>
+        <v>100</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -9363,13 +9345,13 @@
         <v>8141</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="M11" s="7">
         <v>31</v>
@@ -9378,13 +9360,13 @@
         <v>23833</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>676</v>
+        <v>322</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>678</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9399,13 +9381,13 @@
         <v>5544</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>680</v>
+        <v>542</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -9414,13 +9396,13 @@
         <v>819</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>328</v>
+        <v>683</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -9429,13 +9411,13 @@
         <v>6363</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9456,7 +9438,7 @@
         <v>40</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -9471,7 +9453,7 @@
         <v>40</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>686</v>
+        <v>230</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -9486,7 +9468,7 @@
         <v>40</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9501,13 +9483,13 @@
         <v>539</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -9516,13 +9498,13 @@
         <v>1021</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>435</v>
+        <v>581</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>690</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -9534,10 +9516,10 @@
         <v>150</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>691</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9593,7 +9575,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -9605,13 +9587,13 @@
         <v>96162</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="H16" s="7">
         <v>81</v>
@@ -9620,13 +9602,13 @@
         <v>63844</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="M16" s="7">
         <v>199</v>
@@ -9635,13 +9617,13 @@
         <v>160006</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9656,13 +9638,13 @@
         <v>40737</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>699</v>
+        <v>199</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>701</v>
+        <v>125</v>
       </c>
       <c r="H17" s="7">
         <v>43</v>
@@ -9671,13 +9653,13 @@
         <v>30637</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>517</v>
+        <v>252</v>
       </c>
       <c r="M17" s="7">
         <v>88</v>
@@ -9686,13 +9668,13 @@
         <v>71374</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9707,13 +9689,13 @@
         <v>5141</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -9722,13 +9704,13 @@
         <v>6470</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="M18" s="7">
         <v>16</v>
@@ -9737,13 +9719,13 @@
         <v>11610</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>608</v>
+        <v>198</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9758,13 +9740,13 @@
         <v>3047</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>156</v>
+        <v>717</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -9773,13 +9755,13 @@
         <v>733</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>717</v>
+        <v>537</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -9788,13 +9770,13 @@
         <v>3780</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>721</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9812,7 +9794,7 @@
         <v>722</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>723</v>
@@ -9824,13 +9806,13 @@
         <v>555</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>724</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>725</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -9839,13 +9821,13 @@
         <v>3397</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>720</v>
+        <v>405</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>727</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9913,13 +9895,13 @@
         <v>62800</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>728</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>730</v>
       </c>
       <c r="H22" s="7">
         <v>70</v>
@@ -9928,13 +9910,13 @@
         <v>51431</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>732</v>
+        <v>549</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="M22" s="7">
         <v>140</v>
@@ -9943,13 +9925,13 @@
         <v>114231</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9964,13 +9946,13 @@
         <v>35603</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>737</v>
+        <v>340</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="H23" s="7">
         <v>41</v>
@@ -9979,13 +9961,13 @@
         <v>41354</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="M23" s="7">
         <v>77</v>
@@ -9994,13 +9976,13 @@
         <v>76957</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -10015,13 +9997,13 @@
         <v>3583</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>639</v>
+        <v>743</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>317</v>
+        <v>534</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -10030,13 +10012,13 @@
         <v>4725</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="M24" s="7">
         <v>11</v>
@@ -10045,13 +10027,13 @@
         <v>8309</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>749</v>
+        <v>719</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>750</v>
+        <v>716</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10072,7 +10054,7 @@
         <v>40</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>232</v>
+        <v>358</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -10081,13 +10063,13 @@
         <v>966</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -10096,13 +10078,13 @@
         <v>966</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>754</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10123,7 +10105,7 @@
         <v>40</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>232</v>
+        <v>358</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -10138,7 +10120,7 @@
         <v>40</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -10153,7 +10135,7 @@
         <v>40</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10221,13 +10203,13 @@
         <v>52481</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="H28" s="7">
         <v>80</v>
@@ -10236,13 +10218,13 @@
         <v>59324</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="M28" s="7">
         <v>147</v>
@@ -10251,13 +10233,13 @@
         <v>111805</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10272,13 +10254,13 @@
         <v>35539</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="H29" s="7">
         <v>39</v>
@@ -10287,13 +10269,13 @@
         <v>29546</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="M29" s="7">
         <v>82</v>
@@ -10302,13 +10284,13 @@
         <v>65085</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>579</v>
+        <v>766</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10323,13 +10305,13 @@
         <v>3839</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>600</v>
+        <v>769</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>774</v>
+        <v>602</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -10338,13 +10320,13 @@
         <v>8046</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="M30" s="7">
         <v>14</v>
@@ -10353,13 +10335,13 @@
         <v>11885</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10380,7 +10362,7 @@
         <v>40</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -10389,13 +10371,13 @@
         <v>1450</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -10410,7 +10392,7 @@
         <v>15</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10425,13 +10407,13 @@
         <v>1127</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>439</v>
+        <v>509</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -10440,13 +10422,13 @@
         <v>823</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>785</v>
+        <v>194</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -10455,13 +10437,13 @@
         <v>1950</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>786</v>
+        <v>543</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10529,13 +10511,13 @@
         <v>263954</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="H34" s="7">
         <v>300</v>
@@ -10544,13 +10526,13 @@
         <v>222633</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="M34" s="7">
         <v>614</v>
@@ -10559,13 +10541,13 @@
         <v>486587</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10580,13 +10562,13 @@
         <v>129117</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="H35" s="7">
         <v>139</v>
@@ -10595,13 +10577,13 @@
         <v>112325</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="M35" s="7">
         <v>284</v>
@@ -10610,13 +10592,13 @@
         <v>241442</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10631,13 +10613,13 @@
         <v>18108</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="H36" s="7">
         <v>27</v>
@@ -10646,13 +10628,13 @@
         <v>20059</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="M36" s="7">
         <v>48</v>
@@ -10661,13 +10643,13 @@
         <v>38167</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>813</v>
+        <v>404</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>779</v>
+        <v>806</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>565</v>
+        <v>807</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10685,10 +10667,10 @@
         <v>146</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>438</v>
+        <v>808</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="H37" s="7">
         <v>5</v>
@@ -10697,13 +10679,13 @@
         <v>3149</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>110</v>
+        <v>811</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="M37" s="7">
         <v>8</v>
@@ -10712,13 +10694,13 @@
         <v>6196</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>191</v>
+        <v>437</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>817</v>
+        <v>749</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10733,13 +10715,13 @@
         <v>4508</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>540</v>
+        <v>640</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>576</v>
+        <v>813</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>818</v>
+        <v>565</v>
       </c>
       <c r="H38" s="7">
         <v>4</v>
@@ -10748,13 +10730,13 @@
         <v>2400</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>820</v>
+        <v>439</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>755</v>
+        <v>815</v>
       </c>
       <c r="M38" s="7">
         <v>10</v>
@@ -10763,13 +10745,13 @@
         <v>6908</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>822</v>
+        <v>748</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10825,7 +10807,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
